--- a/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
+++ b/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
@@ -52,45 +52,49 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>Tipo de feedback</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>Tipo de comentários</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>Classificação do feedback</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>Classificação de comentários</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>Tipo de participação</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>Tipo de engajamento</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>Classificação da participação</t>
+      <t>Classificação de engajamento</t>
     </r>
   </si>
   <si>
@@ -422,7 +426,7 @@
     <numFmt numFmtId="177" formatCode="@"/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,12 +442,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Aptos Narrow"/>
@@ -679,10 +677,10 @@
   <autoFilter ref="A1:E55"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Data" dataDxfId="4"/>
-    <tableColumn id="3" name="Tipo de feedback" dataDxfId="3"/>
-    <tableColumn id="4" name="Classificação do feedback" dataDxfId="2"/>
-    <tableColumn id="5" name="Tipo de participação" dataDxfId="1"/>
-    <tableColumn id="6" name="Classificação da participação" dataDxfId="0"/>
+    <tableColumn id="3" name="Tipo de comentários" dataDxfId="3"/>
+    <tableColumn id="4" name="Classificação de comentários" dataDxfId="2"/>
+    <tableColumn id="5" name="Tipo de engajamento" dataDxfId="1"/>
+    <tableColumn id="6" name="Classificação de engajamento" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
+++ b/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
@@ -193,7 +193,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>o Telefone</t>
+      <t>Telefone</t>
     </r>
   </si>
   <si>
